--- a/Forest_data.xlsx
+++ b/Forest_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Science\2017\paper-local-mf\EcoInf-paper-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC38545B-745B-4EAF-B500-E51E3F37994B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="0" windowWidth="22725" windowHeight="10110" activeTab="2" xr2:uid="{8AAE633F-C590-47F0-9EFC-A822B99B308B}"/>
+    <workbookView xWindow="3828" yWindow="0" windowWidth="22728" windowHeight="10116" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Russia_tree_layer" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="381">
   <si>
     <t>Fraxinus chinensis Roxb.</t>
   </si>
@@ -62,9 +61,6 @@
     <t>Quercus liaotungensis Koidz.</t>
   </si>
   <si>
-    <t>Ulmus laciniata（Trautv.) Mayr.</t>
-  </si>
-  <si>
     <t>Corylus mandshurica Maxim.</t>
   </si>
   <si>
@@ -72,9 +68,6 @@
   </si>
   <si>
     <t>Celtis bungeana Bl.</t>
-  </si>
-  <si>
-    <t>Prunus davidianaCarr. Franch.</t>
   </si>
   <si>
     <t>Prunus armeniaca var. ansu</t>
@@ -131,9 +124,6 @@
     <t>Populus cathayana Rehd.</t>
   </si>
   <si>
-    <t>Leptopus chinensisBge.Pojark.</t>
-  </si>
-  <si>
     <t>Lonicera japonica Thunb.</t>
   </si>
   <si>
@@ -164,22 +154,10 @@
     <t>Rhododendron micranthum Turcz.</t>
   </si>
   <si>
-    <t>Gramineae Sp.</t>
-  </si>
-  <si>
-    <t>Artemisia argyi Levl.et Vant.</t>
-  </si>
-  <si>
     <t>Ajuga lupulina Maxim</t>
   </si>
   <si>
     <t>Artemisia gmelinii Web. Ex Stechm.</t>
-  </si>
-  <si>
-    <t>Pulsatilla chinensisBge.</t>
-  </si>
-  <si>
-    <t>Angelica dahuricaFisch. Benth. et Hook.</t>
   </si>
   <si>
     <t>Viola variegata Fisch.</t>
@@ -195,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bupleurum chinense DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bupleurum chinense f. pekinense(Franch.) Shan et Y. </t>
   </si>
   <si>
     <t>Scutellaria pekinensis Maxim.</t>
@@ -321,21 +296,6 @@
     <t>Bidens bipinnata L.</t>
   </si>
   <si>
-    <t>Granineae Sp.1</t>
-  </si>
-  <si>
-    <t>Granineae Sp.2</t>
-  </si>
-  <si>
-    <t>Granineae Sp.3</t>
-  </si>
-  <si>
-    <t>Granineae Sp.4</t>
-  </si>
-  <si>
-    <t>Granineae Sp.7</t>
-  </si>
-  <si>
     <t>Bupleurum smithii Wolff</t>
   </si>
   <si>
@@ -343,9 +303,6 @@
   </si>
   <si>
     <t>Artemisia rubripes Nakai</t>
-  </si>
-  <si>
-    <t>Saussurea mongolica Franch. Franch.</t>
   </si>
   <si>
     <t>Scabiosa tschiliensis Grun.</t>
@@ -364,9 +321,6 @@
   </si>
   <si>
     <t>Polygonatum sibiricum Delar. Ex Red.</t>
-  </si>
-  <si>
-    <t>Astragalus membranaceus Fisch.Bge.</t>
   </si>
   <si>
     <t>Astragalus sp.</t>
@@ -397,18 +351,6 @@
   </si>
   <si>
     <t>Viola Sp.</t>
-  </si>
-  <si>
-    <t>Platycodon grandiflorus (Jacq.) A.DC.</t>
-  </si>
-  <si>
-    <t>Compositae Sp.1</t>
-  </si>
-  <si>
-    <t>Compositae Sp.2</t>
-  </si>
-  <si>
-    <t>Compositae Sp.3</t>
   </si>
   <si>
     <t>Lilium lanciforlium Thunb.</t>
@@ -468,9 +410,6 @@
     <t>Iris lactea Pall. var. chinensis Koidz.</t>
   </si>
   <si>
-    <t>Pseudostellaria davidiiFranch. Pax</t>
-  </si>
-  <si>
     <t>Euphorbia lunulata Bge.</t>
   </si>
   <si>
@@ -522,9 +461,6 @@
     <t>Galium boreale L.</t>
   </si>
   <si>
-    <t>Ixeris denticulata Houtt.Stebb.</t>
-  </si>
-  <si>
     <t>Asparagus trichophyllus Bunge</t>
   </si>
   <si>
@@ -535,9 +471,6 @@
   </si>
   <si>
     <t>Aster ageratoides Turcz.</t>
-  </si>
-  <si>
-    <t>Amphicarpaea trispermaMiq. Baker ex Kitag.</t>
   </si>
   <si>
     <t>Umbelliferae Sp.</t>
@@ -585,12 +518,6 @@
     <t>Impatiens noli-tangere L.</t>
   </si>
   <si>
-    <t>Thalictrum minus L. var . hypoleucumSieb. et Zucc. Miq.</t>
-  </si>
-  <si>
-    <t>Erysimum bungei Kitag.Kitag.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Convolvulus arvensis Linn. </t>
   </si>
   <si>
@@ -612,9 +539,6 @@
     <t>Spp2-unclassified</t>
   </si>
   <si>
-    <t>Compositae Sp.</t>
-  </si>
-  <si>
     <t>Saussurea ussuriensis Maxim.</t>
   </si>
   <si>
@@ -622,12 +546,6 @@
   </si>
   <si>
     <t>Artemisia tanacetifolia Linn.</t>
-  </si>
-  <si>
-    <t>Veronica linariifolia Pall. ex Link, ssp.</t>
-  </si>
-  <si>
-    <t>Carex rigescensFrench. V. Krecz.</t>
   </si>
   <si>
     <t>Scorzonera albicaulis Bge.</t>
@@ -640,9 +558,6 @@
   </si>
   <si>
     <t>Potentilla longifolia Willd. ex Schlecht.</t>
-  </si>
-  <si>
-    <t>Denfranthema chanetiiLevl. Shih</t>
   </si>
   <si>
     <t>Bidens parviflora Willd.</t>
@@ -1034,126 +949,6 @@
     <t>X100</t>
   </si>
   <si>
-    <t>Aegopodium_podagraria</t>
-  </si>
-  <si>
-    <t>Asarum_europaeum</t>
-  </si>
-  <si>
-    <t>Athyrium_filix-femina</t>
-  </si>
-  <si>
-    <t>Campanula_trachelium</t>
-  </si>
-  <si>
-    <t>Dryopteris_filix-mas</t>
-  </si>
-  <si>
-    <t>Equisetum_arvense</t>
-  </si>
-  <si>
-    <t>Filipendula_ulmaria</t>
-  </si>
-  <si>
-    <t>Geum_urbanum</t>
-  </si>
-  <si>
-    <t>Mercurialis_perennis</t>
-  </si>
-  <si>
-    <t>Pulmonaria_obscura</t>
-  </si>
-  <si>
-    <t>Ranunculus_cassubicus</t>
-  </si>
-  <si>
-    <t>Stachys_sylvatica</t>
-  </si>
-  <si>
-    <t>Stellaria_nemorum</t>
-  </si>
-  <si>
-    <t>Urtica_dioica</t>
-  </si>
-  <si>
-    <t>Galium_odoratum</t>
-  </si>
-  <si>
-    <t>Lathyrus_vernus</t>
-  </si>
-  <si>
-    <t>Glechoma_hederacea</t>
-  </si>
-  <si>
-    <t>Carex_hirta</t>
-  </si>
-  <si>
-    <t>Milium_effusum</t>
-  </si>
-  <si>
-    <t>Dryopteris_carthusiana</t>
-  </si>
-  <si>
-    <t>Viola_mirabilis</t>
-  </si>
-  <si>
-    <t>Polygonatum_odoratum</t>
-  </si>
-  <si>
-    <t>Paris_quadrifolia</t>
-  </si>
-  <si>
-    <t>Calamagrostis_arundinacea</t>
-  </si>
-  <si>
-    <t>Carex_sylvatica</t>
-  </si>
-  <si>
-    <t>Stellaria_holostea</t>
-  </si>
-  <si>
-    <t>Actaea_spicata</t>
-  </si>
-  <si>
-    <t>Epipactis_helleborine</t>
-  </si>
-  <si>
-    <t>Gymnocarpium_dryopteris</t>
-  </si>
-  <si>
-    <t>Acer_platanoides</t>
-  </si>
-  <si>
-    <t>Fraxinus_excelsior</t>
-  </si>
-  <si>
-    <t>Ulmus_glabra</t>
-  </si>
-  <si>
-    <t>Tilia_cordata</t>
-  </si>
-  <si>
-    <t>Lonicera_xylosteum</t>
-  </si>
-  <si>
-    <t>Euonymus_verrucosa</t>
-  </si>
-  <si>
-    <t>Quercus_robur</t>
-  </si>
-  <si>
-    <t>Corulus_avellana</t>
-  </si>
-  <si>
-    <t>Viburnum_opulus</t>
-  </si>
-  <si>
-    <t>Rubus_idaeus</t>
-  </si>
-  <si>
-    <t>Malus_sylvestris</t>
-  </si>
-  <si>
     <t>Populus tremula</t>
   </si>
   <si>
@@ -1196,13 +991,196 @@
     <t>Species</t>
   </si>
   <si>
-    <t>Prunus_padus</t>
+    <t>Actaea spicata</t>
+  </si>
+  <si>
+    <t>Aegopodium podagraria</t>
+  </si>
+  <si>
+    <t>Asarum europaeum</t>
+  </si>
+  <si>
+    <t>Athyrium filix-femina</t>
+  </si>
+  <si>
+    <t>Calamagrostis arundinacea</t>
+  </si>
+  <si>
+    <t>Campanula trachelium</t>
+  </si>
+  <si>
+    <t>Carex hirta</t>
+  </si>
+  <si>
+    <t>Carex sylvatica</t>
+  </si>
+  <si>
+    <t>Dryopteris carthusiana</t>
+  </si>
+  <si>
+    <t>Dryopteris filix-mas</t>
+  </si>
+  <si>
+    <t>Epipactis helleborine</t>
+  </si>
+  <si>
+    <t>Equisetum arvense</t>
+  </si>
+  <si>
+    <t>Euonymus verrucosa</t>
+  </si>
+  <si>
+    <t>Filipendula ulmaria</t>
+  </si>
+  <si>
+    <t>Galium odoratum</t>
+  </si>
+  <si>
+    <t>Geum urbanum</t>
+  </si>
+  <si>
+    <t>Glechoma hederacea</t>
+  </si>
+  <si>
+    <t>Gymnocarpium dryopteris</t>
+  </si>
+  <si>
+    <t>Lathyrus vernus</t>
+  </si>
+  <si>
+    <t>Mercurialis perennis</t>
+  </si>
+  <si>
+    <t>Milium effusum</t>
+  </si>
+  <si>
+    <t>Paris quadrifolia</t>
+  </si>
+  <si>
+    <t>Polygonatum odoratum</t>
+  </si>
+  <si>
+    <t>Prunus padus</t>
+  </si>
+  <si>
+    <t>Pulmonaria obscura</t>
+  </si>
+  <si>
+    <t>Ranunculus cassubicus</t>
+  </si>
+  <si>
+    <t>Rubus idaeus</t>
+  </si>
+  <si>
+    <t>Stachys sylvatica</t>
+  </si>
+  <si>
+    <t>Stellaria holostea</t>
+  </si>
+  <si>
+    <t>Stellaria nemorum</t>
+  </si>
+  <si>
+    <t>Urtica dioica</t>
+  </si>
+  <si>
+    <t>Viburnum opulus</t>
+  </si>
+  <si>
+    <t>Viola mirabilis</t>
+  </si>
+  <si>
+    <t>Ulmus laciniata (Trautv.) Mayr.</t>
+  </si>
+  <si>
+    <t>Prunus davidiana Carr. Franch.</t>
+  </si>
+  <si>
+    <t>Leptopus chinensis Bge. Pojark.</t>
+  </si>
+  <si>
+    <t>Amphicarpaea trisperma Miq. Baker ex Kitag.</t>
+  </si>
+  <si>
+    <t>Angelica dahurica Fisch. Benth. et Hook.</t>
+  </si>
+  <si>
+    <t>Artemisia argyi Levl. et Vant.</t>
+  </si>
+  <si>
+    <t>Astragalus membranaceus Fisch. Bge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bupleurum chinense f. pekinense (Franch.) Shan et Y. </t>
+  </si>
+  <si>
+    <t>Carex rigescens French. V. Krecz.</t>
+  </si>
+  <si>
+    <t>Compositae Sp. 1</t>
+  </si>
+  <si>
+    <t>Compositae Sp. 2</t>
+  </si>
+  <si>
+    <t>Compositae Sp. 3</t>
+  </si>
+  <si>
+    <t>Compositae Sp. 4</t>
+  </si>
+  <si>
+    <t>Compositae Sp. 5</t>
+  </si>
+  <si>
+    <t>Denfranthema chanetii Levl. Shih</t>
+  </si>
+  <si>
+    <t>Erysimum bungei Kitag. Kitag.</t>
+  </si>
+  <si>
+    <t>Gramineae Sp. 1</t>
+  </si>
+  <si>
+    <t>Gramineae Sp. 2</t>
+  </si>
+  <si>
+    <t>Gramineae Sp. 3</t>
+  </si>
+  <si>
+    <t>Gramineae Sp. 4</t>
+  </si>
+  <si>
+    <t>Gramineae Sp. 5</t>
+  </si>
+  <si>
+    <t>Gramineae Sp. 6</t>
+  </si>
+  <si>
+    <t>Ixeris denticulata Houtt. Stebb.</t>
+  </si>
+  <si>
+    <t>Platycodon grandiflorus (Jacq.) A. DC.</t>
+  </si>
+  <si>
+    <t>Pseudostellaria davidii Franch. Pax</t>
+  </si>
+  <si>
+    <t>Pulsatilla chinensis Bge.</t>
+  </si>
+  <si>
+    <t>Saussurea mongolica Franch.</t>
+  </si>
+  <si>
+    <t>Thalictrum minus L. var. hypoleucumSieb. et Zucc. Miq.</t>
+  </si>
+  <si>
+    <t>Veronica linariifolia Pall. ex Link. ssp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1220,12 +1198,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1240,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1248,6 +1232,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1561,326 +1549,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825867F-293F-428C-BDAE-F4E25D41A55B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:CW12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AE1" t="s">
         <v>234</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AF1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AG1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AH1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AI1" t="s">
         <v>238</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AJ1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AK1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AL1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AM1" t="s">
         <v>242</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AN1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AO1" t="s">
         <v>244</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AP1" t="s">
         <v>245</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AQ1" t="s">
         <v>246</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AR1" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AS1" t="s">
         <v>248</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AT1" t="s">
         <v>249</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AU1" t="s">
         <v>250</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AV1" t="s">
         <v>251</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AW1" t="s">
         <v>252</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AX1" t="s">
         <v>253</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AY1" t="s">
         <v>254</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AZ1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BA1" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BB1" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BC1" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BD1" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BE1" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BF1" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BG1" t="s">
         <v>262</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BH1" t="s">
         <v>263</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BI1" t="s">
         <v>264</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BJ1" t="s">
         <v>265</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BK1" t="s">
         <v>266</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BL1" t="s">
         <v>267</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BM1" t="s">
         <v>268</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BN1" t="s">
         <v>269</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BO1" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BP1" t="s">
         <v>271</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BQ1" t="s">
         <v>272</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BR1" t="s">
         <v>273</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BS1" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BT1" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BU1" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BV1" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BW1" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BX1" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BY1" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BZ1" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="CA1" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="CB1" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="CC1" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CD1" t="s">
         <v>285</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CE1" t="s">
         <v>286</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CF1" t="s">
         <v>287</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CG1" t="s">
         <v>288</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CH1" t="s">
         <v>289</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CI1" t="s">
         <v>290</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CJ1" t="s">
         <v>291</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CK1" t="s">
         <v>292</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CL1" t="s">
         <v>293</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CM1" t="s">
         <v>294</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CN1" t="s">
         <v>295</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CO1" t="s">
         <v>296</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CP1" t="s">
         <v>297</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CQ1" t="s">
         <v>298</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CR1" t="s">
         <v>299</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CS1" t="s">
         <v>300</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CT1" t="s">
         <v>301</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CU1" t="s">
         <v>302</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CV1" t="s">
         <v>303</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CW1" t="s">
         <v>304</v>
       </c>
-      <c r="BV1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX1" t="s">
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>307</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>309</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>310</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>311</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>312</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>313</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>315</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>316</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>320</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>321</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>326</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>330</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>331</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>375</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2183,9 +2171,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2488,9 +2476,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2793,9 +2781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3098,9 +3086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3403,9 +3391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3708,9 +3696,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4013,9 +4001,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4318,9 +4306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4623,9 +4611,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -4928,9 +4916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5242,326 +5230,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FE4744-7924-4537-AB03-2717A4E9C648}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AE1" t="s">
         <v>234</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AF1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AG1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AH1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AI1" t="s">
         <v>238</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AJ1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AK1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AL1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AM1" t="s">
         <v>242</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AN1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AO1" t="s">
         <v>244</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AP1" t="s">
         <v>245</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AQ1" t="s">
         <v>246</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AR1" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AS1" t="s">
         <v>248</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AT1" t="s">
         <v>249</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AU1" t="s">
         <v>250</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AV1" t="s">
         <v>251</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AW1" t="s">
         <v>252</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AX1" t="s">
         <v>253</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AY1" t="s">
         <v>254</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AZ1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BA1" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BB1" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BC1" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BD1" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BE1" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BF1" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BG1" t="s">
         <v>262</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BH1" t="s">
         <v>263</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BI1" t="s">
         <v>264</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BJ1" t="s">
         <v>265</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BK1" t="s">
         <v>266</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BL1" t="s">
         <v>267</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BM1" t="s">
         <v>268</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BN1" t="s">
         <v>269</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BO1" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BP1" t="s">
         <v>271</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BQ1" t="s">
         <v>272</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BR1" t="s">
         <v>273</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BS1" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BT1" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BU1" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BV1" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BW1" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BX1" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BY1" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BZ1" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="CA1" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="CB1" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="CC1" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CD1" t="s">
         <v>285</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CE1" t="s">
         <v>286</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CF1" t="s">
         <v>287</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CG1" t="s">
         <v>288</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CH1" t="s">
         <v>289</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CI1" t="s">
         <v>290</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CJ1" t="s">
         <v>291</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CK1" t="s">
         <v>292</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CL1" t="s">
         <v>293</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CM1" t="s">
         <v>294</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CN1" t="s">
         <v>295</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CO1" t="s">
         <v>296</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CP1" t="s">
         <v>297</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CQ1" t="s">
         <v>298</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CR1" t="s">
         <v>299</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CS1" t="s">
         <v>300</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CT1" t="s">
         <v>301</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CU1" t="s">
         <v>302</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CV1" t="s">
         <v>303</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CW1" t="s">
         <v>304</v>
       </c>
-      <c r="BV1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX1" t="s">
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>307</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>309</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>310</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>311</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>312</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>313</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>315</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>316</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>320</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>321</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>326</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>330</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>331</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>375</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -5864,9 +5852,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6169,9 +6157,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6474,9 +6462,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6779,9 +6767,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7084,9 +7072,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7389,9 +7377,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7694,9 +7682,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7999,9 +7987,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -8304,9 +8292,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8618,326 +8606,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDB2EF-F3B8-4135-950F-7544D87AE722}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AE1" t="s">
         <v>234</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AF1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AG1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AH1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AI1" t="s">
         <v>238</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AJ1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AK1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AL1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AM1" t="s">
         <v>242</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AN1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AO1" t="s">
         <v>244</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AP1" t="s">
         <v>245</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AQ1" t="s">
         <v>246</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AR1" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AS1" t="s">
         <v>248</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AT1" t="s">
         <v>249</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AU1" t="s">
         <v>250</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AV1" t="s">
         <v>251</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AW1" t="s">
         <v>252</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AX1" t="s">
         <v>253</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AY1" t="s">
         <v>254</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AZ1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BA1" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BB1" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BC1" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BD1" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BE1" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BF1" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BG1" t="s">
         <v>262</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BH1" t="s">
         <v>263</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BI1" t="s">
         <v>264</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BJ1" t="s">
         <v>265</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BK1" t="s">
         <v>266</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BL1" t="s">
         <v>267</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BM1" t="s">
         <v>268</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BN1" t="s">
         <v>269</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BO1" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BP1" t="s">
         <v>271</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BQ1" t="s">
         <v>272</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BR1" t="s">
         <v>273</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BS1" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BT1" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BU1" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BV1" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BW1" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BX1" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BY1" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BZ1" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="CA1" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="CB1" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="CC1" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CD1" t="s">
         <v>285</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CE1" t="s">
         <v>286</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CF1" t="s">
         <v>287</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CG1" t="s">
         <v>288</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CH1" t="s">
         <v>289</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CI1" t="s">
         <v>290</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CJ1" t="s">
         <v>291</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CK1" t="s">
         <v>292</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CL1" t="s">
         <v>293</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CM1" t="s">
         <v>294</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CN1" t="s">
         <v>295</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CO1" t="s">
         <v>296</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CP1" t="s">
         <v>297</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CQ1" t="s">
         <v>298</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CR1" t="s">
         <v>299</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CS1" t="s">
         <v>300</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CT1" t="s">
         <v>301</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CU1" t="s">
         <v>302</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CV1" t="s">
         <v>303</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CW1" t="s">
         <v>304</v>
       </c>
-      <c r="BV1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX1" t="s">
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>307</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>309</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>310</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>311</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>312</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>313</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>315</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>316</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>320</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>321</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>326</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>330</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>331</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>362</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -9240,9 +9228,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9545,9 +9533,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>178</v>
@@ -9850,9 +9838,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -10155,9 +10143,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -10460,9 +10448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10765,9 +10753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -11070,9 +11058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11375,9 +11363,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11680,9 +11668,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11985,9 +11973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12290,9 +12278,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -12595,9 +12583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12900,9 +12888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13205,9 +13193,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13510,9 +13498,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -13815,9 +13803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -14120,9 +14108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -14425,9 +14413,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -14730,9 +14718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -15035,9 +15023,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -15340,9 +15328,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -15645,9 +15633,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -15950,9 +15938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -16255,9 +16243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B26">
         <v>27</v>
@@ -16560,9 +16548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -16865,9 +16853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -17170,9 +17158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -17475,9 +17463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -17780,9 +17768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -18085,9 +18073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -18390,9 +18378,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -18695,9 +18683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -19000,9 +18988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -19305,9 +19293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -19610,9 +19598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -19915,9 +19903,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -20220,9 +20208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -20525,9 +20513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="B40">
         <v>15</v>
@@ -20830,9 +20818,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -21135,9 +21123,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -21440,9 +21428,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -21754,313 +21742,315 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0A6DCE-E224-4F26-B3C6-AB9DCBDAF64D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD1" t="s">
         <v>233</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AE1" t="s">
         <v>234</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AF1" t="s">
         <v>235</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AG1" t="s">
         <v>236</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AH1" t="s">
         <v>237</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AI1" t="s">
         <v>238</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AJ1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AK1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AL1" t="s">
         <v>241</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AM1" t="s">
         <v>242</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AN1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AO1" t="s">
         <v>244</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AP1" t="s">
         <v>245</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AQ1" t="s">
         <v>246</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AR1" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AS1" t="s">
         <v>248</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AT1" t="s">
         <v>249</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AU1" t="s">
         <v>250</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AV1" t="s">
         <v>251</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AW1" t="s">
         <v>252</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AX1" t="s">
         <v>253</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AY1" t="s">
         <v>254</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AZ1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BA1" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BB1" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BC1" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BD1" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BE1" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BF1" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BG1" t="s">
         <v>262</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BH1" t="s">
         <v>263</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BI1" t="s">
         <v>264</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BJ1" t="s">
         <v>265</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BK1" t="s">
         <v>266</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BL1" t="s">
         <v>267</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BM1" t="s">
         <v>268</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BN1" t="s">
         <v>269</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BO1" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BP1" t="s">
         <v>271</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BQ1" t="s">
         <v>272</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BR1" t="s">
         <v>273</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BS1" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BT1" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BU1" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BV1" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BW1" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BX1" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BY1" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BZ1" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="CA1" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="CB1" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="CC1" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CD1" t="s">
         <v>285</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CE1" t="s">
         <v>286</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CF1" t="s">
         <v>287</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CG1" t="s">
         <v>288</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CH1" t="s">
         <v>289</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CI1" t="s">
         <v>290</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CJ1" t="s">
         <v>291</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CK1" t="s">
         <v>292</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CL1" t="s">
         <v>293</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CM1" t="s">
         <v>294</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CN1" t="s">
         <v>295</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CO1" t="s">
         <v>296</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CP1" t="s">
         <v>297</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CQ1" t="s">
         <v>298</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CR1" t="s">
         <v>299</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CS1" t="s">
         <v>300</v>
       </c>
-      <c r="BR1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>309</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>310</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>311</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>312</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>313</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>315</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>316</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>318</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>320</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>321</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>326</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>328</v>
-      </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -22351,7 +22341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -22644,7 +22634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -22937,9 +22927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -23230,9 +23220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -23523,7 +23513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -23816,7 +23806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -24109,9 +24099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -24402,9 +24392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -24695,9 +24685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -24988,9 +24978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -25281,7 +25271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -25574,7 +25564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -25867,7 +25857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -26160,7 +26150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -26453,9 +26443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -26746,9 +26736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -27039,7 +27029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -27332,9 +27322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>352</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -27625,7 +27615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -27928,312 +27918,314 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A25FB3-1367-4A5C-A1FE-B7FE4644FACF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="BR1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>328</v>
-      </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>175</v>
@@ -28524,9 +28516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -28817,9 +28809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -29110,7 +29102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -29403,9 +29395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -29696,7 +29688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -29989,9 +29981,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -30282,9 +30274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -30575,9 +30567,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -30868,9 +30860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>155</v>
@@ -31161,9 +31153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -31454,9 +31446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -31747,9 +31739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -32040,7 +32032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -32333,7 +32325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -32626,9 +32618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="B17" s="1">
         <v>37</v>
@@ -32919,9 +32911,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -33212,9 +33204,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -33505,9 +33497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -33798,9 +33790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -34091,9 +34083,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -34384,9 +34376,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -34677,9 +34669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -34970,9 +34962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
         <v>29</v>
@@ -35263,9 +35255,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -35556,9 +35548,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -35849,7 +35841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -36142,9 +36134,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -36435,7 +36427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -36728,9 +36720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -37021,9 +37013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -37314,9 +37306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -37607,9 +37599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -37900,9 +37892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -38193,9 +38185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <v>66</v>
@@ -38486,7 +38478,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -38779,7 +38771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -39072,9 +39064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -39365,7 +39357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>3</v>
       </c>
@@ -39658,7 +39650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -39951,9 +39943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -40254,312 +40246,314 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97795B27-51B7-4EA9-99EC-26CE852E64CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS194"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="BR1" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>328</v>
-      </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -40850,9 +40844,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -41143,9 +41137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -41436,9 +41430,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -41729,9 +41723,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -42022,9 +42016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -42315,9 +42309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -42608,9 +42602,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -42901,9 +42895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -43194,9 +43188,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -43487,9 +43481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>355</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -43780,9 +43774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>356</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -44073,9 +44067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -44366,9 +44360,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -44659,9 +44653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -44952,9 +44946,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -45245,9 +45239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -45538,9 +45532,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -45831,9 +45825,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -46124,9 +46118,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -46417,9 +46411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -46710,9 +46704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -47003,9 +46997,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -47296,9 +47290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -47589,9 +47583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -47882,9 +47876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -48175,9 +48169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -48468,9 +48462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -48761,9 +48755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -49054,9 +49048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -49347,9 +49341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -49640,9 +49634,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -49933,9 +49927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>358</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -50226,9 +50220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -50519,9 +50513,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -50812,9 +50806,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -51105,9 +51099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -51398,9 +51392,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -51691,9 +51685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -51984,9 +51978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>359</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -52277,9 +52271,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -52570,9 +52564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -52863,9 +52857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
@@ -53156,9 +53150,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -53449,9 +53443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
@@ -53742,9 +53736,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -54035,9 +54029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -54328,9 +54322,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -54621,9 +54615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -54914,9 +54908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -55207,9 +55201,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -55500,9 +55494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -55793,9 +55787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -56086,9 +56080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -56379,9 +56373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>362</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -56672,9 +56666,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -56965,9 +56959,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>364</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -57258,9 +57252,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>125</v>
+        <v>365</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -57551,9 +57545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -57844,9 +57838,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -58137,9 +58131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -58430,9 +58424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -58723,9 +58717,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -59016,9 +59010,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -59309,9 +59303,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -59602,9 +59596,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -59895,9 +59889,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
@@ -60188,9 +60182,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -60481,9 +60475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1">
         <v>2</v>
@@ -60774,9 +60768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -61067,9 +61061,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -61360,9 +61354,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -61653,9 +61647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -61946,9 +61940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -62239,9 +62233,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -62532,9 +62526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -62825,9 +62819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -63118,9 +63112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1">
         <v>2</v>
@@ -63411,9 +63405,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -63704,9 +63698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -63997,9 +63991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -64290,9 +64284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -64583,9 +64577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>369</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -64876,9 +64870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -65169,9 +65163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>371</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -65462,9 +65456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>372</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -65755,9 +65749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -66048,9 +66042,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -66341,9 +66335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -66634,9 +66628,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -66927,9 +66921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -67220,9 +67214,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -67513,9 +67507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -67806,9 +67800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -68099,9 +68093,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -68392,9 +68386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -68685,9 +68679,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -68978,595 +68972,595 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="1">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0</v>
-      </c>
-      <c r="J99" s="1">
-        <v>0</v>
-      </c>
-      <c r="K99" s="1">
-        <v>0</v>
-      </c>
-      <c r="L99" s="1">
-        <v>0</v>
-      </c>
-      <c r="M99" s="1">
-        <v>0</v>
-      </c>
-      <c r="N99" s="1">
-        <v>0</v>
-      </c>
-      <c r="O99" s="1">
-        <v>0</v>
-      </c>
-      <c r="P99" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>0</v>
-      </c>
-      <c r="R99" s="1">
-        <v>0</v>
-      </c>
-      <c r="S99" s="1">
-        <v>0</v>
-      </c>
-      <c r="T99" s="1">
-        <v>0</v>
-      </c>
-      <c r="U99" s="1">
-        <v>0</v>
-      </c>
-      <c r="V99" s="1">
-        <v>0</v>
-      </c>
-      <c r="W99" s="1">
-        <v>0</v>
-      </c>
-      <c r="X99" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU99" s="1">
+    <row r="99" spans="1:97" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
+        <v>0</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0</v>
+      </c>
+      <c r="M99" s="5">
+        <v>0</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>0</v>
+      </c>
+      <c r="R99" s="5">
+        <v>0</v>
+      </c>
+      <c r="S99" s="5">
+        <v>0</v>
+      </c>
+      <c r="T99" s="5">
+        <v>0</v>
+      </c>
+      <c r="U99" s="5">
+        <v>0</v>
+      </c>
+      <c r="V99" s="5">
+        <v>0</v>
+      </c>
+      <c r="W99" s="5">
+        <v>0</v>
+      </c>
+      <c r="X99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU99" s="5">
         <v>1</v>
       </c>
-      <c r="AV99" s="1">
+      <c r="AV99" s="5">
         <v>10</v>
       </c>
-      <c r="AW99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY99" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ99" s="1">
+      <c r="AW99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ99" s="5">
         <v>1</v>
       </c>
-      <c r="BA99" s="1">
+      <c r="BA99" s="5">
         <v>1</v>
       </c>
-      <c r="BB99" s="1">
+      <c r="BB99" s="5">
         <v>5</v>
       </c>
-      <c r="BC99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD99" s="1">
+      <c r="BC99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD99" s="5">
         <v>1</v>
       </c>
-      <c r="BE99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY99" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR99" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS99" s="1">
+      <c r="BE99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY99" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CO99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR99" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS99" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0</v>
-      </c>
-      <c r="K100" s="1">
-        <v>0</v>
-      </c>
-      <c r="L100" s="1">
+    <row r="100" spans="1:97" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5">
+        <v>0</v>
+      </c>
+      <c r="H100" s="5">
+        <v>0</v>
+      </c>
+      <c r="I100" s="5">
+        <v>0</v>
+      </c>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0</v>
+      </c>
+      <c r="L100" s="5">
         <v>1</v>
       </c>
-      <c r="M100" s="1">
-        <v>0</v>
-      </c>
-      <c r="N100" s="1">
-        <v>0</v>
-      </c>
-      <c r="O100" s="1">
-        <v>0</v>
-      </c>
-      <c r="P100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="1">
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <v>0</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0</v>
-      </c>
-      <c r="T100" s="1">
-        <v>0</v>
-      </c>
-      <c r="U100" s="1">
-        <v>0</v>
-      </c>
-      <c r="V100" s="1">
-        <v>0</v>
-      </c>
-      <c r="W100" s="1">
-        <v>0</v>
-      </c>
-      <c r="X100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY100" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ100" s="1">
+      <c r="M100" s="5">
+        <v>0</v>
+      </c>
+      <c r="N100" s="5">
+        <v>0</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>0</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0</v>
+      </c>
+      <c r="S100" s="5">
+        <v>0</v>
+      </c>
+      <c r="T100" s="5">
+        <v>0</v>
+      </c>
+      <c r="U100" s="5">
+        <v>0</v>
+      </c>
+      <c r="V100" s="5">
+        <v>0</v>
+      </c>
+      <c r="W100" s="5">
+        <v>0</v>
+      </c>
+      <c r="X100" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ100" s="5">
         <v>1</v>
       </c>
-      <c r="BR100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY100" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR100" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS100" s="1">
+      <c r="BR100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY100" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CO100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR100" s="5">
+        <v>0</v>
+      </c>
+      <c r="CS100" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -69857,9 +69851,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -70150,9 +70144,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -70443,9 +70437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -70736,9 +70730,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -71029,9 +71023,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -71322,9 +71316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -71615,9 +71609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -71908,9 +71902,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -72201,9 +72195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
@@ -72494,9 +72488,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -72787,9 +72781,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -73080,9 +73074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -73373,9 +73367,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -73666,9 +73660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -73959,9 +73953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -74252,9 +74246,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -74545,9 +74539,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -74838,9 +74832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -75131,9 +75125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -75424,9 +75418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
@@ -75717,9 +75711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -76010,9 +76004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -76303,9 +76297,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>375</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -76596,9 +76590,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B125" s="1">
         <v>5</v>
@@ -76889,9 +76883,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -77182,9 +77176,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -77475,9 +77469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -77768,9 +77762,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -78061,9 +78055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -78354,9 +78348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -78647,9 +78641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -78940,9 +78934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -79233,9 +79227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -79526,9 +79520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -79819,9 +79813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -80112,9 +80106,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -80405,9 +80399,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -80698,9 +80692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -80991,9 +80985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>376</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -81284,9 +81278,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -81577,9 +81571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -81870,9 +81864,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -82163,9 +82157,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -82456,9 +82450,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -82749,9 +82743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -83042,9 +83036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -83335,9 +83329,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -83628,9 +83622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -83921,9 +83915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -84214,9 +84208,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -84507,9 +84501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -84800,9 +84794,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -85093,9 +85087,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -85386,9 +85380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -85679,9 +85673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B156" s="1">
         <v>2</v>
@@ -85972,9 +85966,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -86265,9 +86259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -86558,9 +86552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -86851,9 +86845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -87144,9 +87138,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -87437,9 +87431,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
@@ -87730,9 +87724,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -88023,9 +88017,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -88316,9 +88310,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -88609,9 +88603,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -88902,9 +88896,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -89195,9 +89189,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -89488,9 +89482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -89781,9 +89775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -90074,9 +90068,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B171" s="1">
         <v>1</v>
@@ -90367,9 +90361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -90660,9 +90654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -90953,9 +90947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B174" s="1">
         <v>1</v>
@@ -91246,9 +91240,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -91539,9 +91533,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -91832,9 +91826,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -92125,9 +92119,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -92418,9 +92412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -92711,9 +92705,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B180" s="1">
         <v>1</v>
@@ -93004,9 +92998,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
@@ -93297,9 +93291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -93590,9 +93584,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -93883,9 +93877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
@@ -94176,9 +94170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>197</v>
+        <v>380</v>
       </c>
       <c r="B185" s="1">
         <v>0</v>
@@ -94469,9 +94463,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
@@ -94762,9 +94756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B187" s="1">
         <v>0</v>
@@ -95055,9 +95049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -95348,9 +95342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B189" s="1">
         <v>0</v>
@@ -95641,9 +95635,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
@@ -95934,9 +95928,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B191" s="1">
         <v>0</v>
@@ -96227,9 +96221,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
@@ -96520,9 +96514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
@@ -96813,9 +96807,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>

--- a/Forest_data.xlsx
+++ b/Forest_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="0" windowWidth="22728" windowHeight="10116" activeTab="5"/>
+    <workbookView xWindow="3828" yWindow="0" windowWidth="22728" windowHeight="10116"/>
   </bookViews>
   <sheets>
     <sheet name="Russia_tree_layer" sheetId="1" r:id="rId1"/>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>Pteridium aquilinum L. Kuhn var. latiusculum Desv. Underw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ixeris sonchifolia Hance </t>
   </si>
   <si>
     <t>Sanguisorba appalanata Yü et L</t>
@@ -1176,6 +1173,9 @@
   <si>
     <t>Veronica linariifolia Pall. ex Link. ssp.</t>
   </si>
+  <si>
+    <t>Ixeris polycephala Cass.</t>
+  </si>
 </sst>
 </file>
 
@@ -1198,18 +1198,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1224,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1232,10 +1226,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1552,7 +1545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1563,312 +1556,312 @@
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>214</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>215</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>216</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>217</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>218</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>220</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>221</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>222</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>223</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>224</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>225</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>226</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>229</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>256</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>257</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>259</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>260</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>261</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>262</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>263</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>264</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>265</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>266</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>267</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>268</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>270</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>271</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>272</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>273</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>274</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>275</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>276</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>277</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>278</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>279</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>280</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>282</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>283</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>284</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>285</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>286</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>287</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>288</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>289</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>290</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>291</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>292</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>293</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>294</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>295</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>296</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>297</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>299</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>300</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>301</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>302</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>303</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2173,7 +2166,7 @@
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2478,7 +2471,7 @@
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2783,7 +2776,7 @@
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3088,7 +3081,7 @@
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3393,7 +3386,7 @@
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3698,7 +3691,7 @@
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4003,7 +3996,7 @@
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4308,7 +4301,7 @@
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4613,7 +4606,7 @@
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -4918,7 +4911,7 @@
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5244,312 +5237,312 @@
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>214</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>215</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>216</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>217</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>218</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>220</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>221</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>222</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>223</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>224</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>225</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>226</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>229</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>256</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>257</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>259</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>260</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>261</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>262</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>263</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>264</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>265</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>266</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>267</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>268</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>270</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>271</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>272</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>273</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>274</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>275</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>276</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>277</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>278</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>279</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>280</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>282</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>283</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>284</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>285</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>286</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>287</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>288</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>289</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>290</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>291</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>292</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>293</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>294</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>295</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>296</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>297</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>299</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>300</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>301</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>302</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>303</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -5854,7 +5847,7 @@
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6159,7 +6152,7 @@
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6464,7 +6457,7 @@
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6769,7 +6762,7 @@
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7074,7 +7067,7 @@
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7379,7 +7372,7 @@
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7684,7 +7677,7 @@
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7989,7 +7982,7 @@
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -8294,7 +8287,7 @@
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8620,312 +8613,312 @@
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>214</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>215</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>216</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>217</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>218</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>220</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>221</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>222</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>223</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>224</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>225</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>226</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>229</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>256</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>257</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>259</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>260</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>261</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>262</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>263</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>264</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>265</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>266</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>267</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>268</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>270</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>271</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>272</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>273</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>274</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>275</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>276</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>277</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>278</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>279</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>280</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>282</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>283</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>284</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>285</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>286</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>287</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>288</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>289</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>290</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>291</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>292</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>293</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>294</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>295</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>296</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>297</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>299</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>300</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>301</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>302</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>303</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -9230,7 +9223,7 @@
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9535,7 +9528,7 @@
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4">
         <v>178</v>
@@ -9840,7 +9833,7 @@
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -10145,7 +10138,7 @@
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -10450,7 +10443,7 @@
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10755,7 +10748,7 @@
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -11060,7 +11053,7 @@
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11365,7 +11358,7 @@
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11670,7 +11663,7 @@
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11975,7 +11968,7 @@
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12280,7 +12273,7 @@
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -12585,7 +12578,7 @@
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12890,7 +12883,7 @@
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13195,7 +13188,7 @@
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13500,7 +13493,7 @@
     </row>
     <row r="17" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -13805,7 +13798,7 @@
     </row>
     <row r="18" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -14110,7 +14103,7 @@
     </row>
     <row r="19" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -14415,7 +14408,7 @@
     </row>
     <row r="20" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -14720,7 +14713,7 @@
     </row>
     <row r="21" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -15025,7 +15018,7 @@
     </row>
     <row r="22" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -15330,7 +15323,7 @@
     </row>
     <row r="23" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -15635,7 +15628,7 @@
     </row>
     <row r="24" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -15940,7 +15933,7 @@
     </row>
     <row r="25" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -16245,7 +16238,7 @@
     </row>
     <row r="26" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B26">
         <v>27</v>
@@ -16550,7 +16543,7 @@
     </row>
     <row r="27" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -16855,7 +16848,7 @@
     </row>
     <row r="28" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -17160,7 +17153,7 @@
     </row>
     <row r="29" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -17465,7 +17458,7 @@
     </row>
     <row r="30" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -17770,7 +17763,7 @@
     </row>
     <row r="31" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -18075,7 +18068,7 @@
     </row>
     <row r="32" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -18380,7 +18373,7 @@
     </row>
     <row r="33" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -18685,7 +18678,7 @@
     </row>
     <row r="34" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -18990,7 +18983,7 @@
     </row>
     <row r="35" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -19295,7 +19288,7 @@
     </row>
     <row r="36" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -19600,7 +19593,7 @@
     </row>
     <row r="37" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -19905,7 +19898,7 @@
     </row>
     <row r="38" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -20210,7 +20203,7 @@
     </row>
     <row r="39" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -20515,7 +20508,7 @@
     </row>
     <row r="40" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40">
         <v>15</v>
@@ -20820,7 +20813,7 @@
     </row>
     <row r="41" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -21125,7 +21118,7 @@
     </row>
     <row r="42" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -21430,7 +21423,7 @@
     </row>
     <row r="43" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -21757,295 +21750,295 @@
   <sheetData>
     <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>208</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>209</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>213</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>214</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>215</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>216</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>217</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>218</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>220</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>221</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>222</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>223</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>224</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>225</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>226</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>229</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>256</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>257</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>259</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>260</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>261</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>262</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>263</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>264</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>265</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>266</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>267</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>268</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>270</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>271</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>272</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>273</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>274</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>275</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>276</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>277</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>278</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>279</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>280</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>282</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>283</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>284</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>285</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>286</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>287</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>288</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>289</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>290</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>291</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>292</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>293</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>294</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>295</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>296</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>297</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>299</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
@@ -24687,7 +24680,7 @@
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -27324,7 +27317,7 @@
     </row>
     <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -27932,295 +27925,295 @@
   <sheetData>
     <row r="1" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
@@ -32620,7 +32613,7 @@
     </row>
     <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B17" s="1">
         <v>37</v>
@@ -35257,7 +35250,7 @@
     </row>
     <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -40249,8 +40242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40260,300 +40253,300 @@
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="CO1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -41139,7 +41132,7 @@
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -41432,7 +41425,7 @@
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -42018,7 +42011,7 @@
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -42604,7 +42597,7 @@
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -43483,7 +43476,7 @@
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -43776,7 +43769,7 @@
     </row>
     <row r="13" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -44655,7 +44648,7 @@
     </row>
     <row r="16" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -44948,7 +44941,7 @@
     </row>
     <row r="17" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -45241,7 +45234,7 @@
     </row>
     <row r="18" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -45827,7 +45820,7 @@
     </row>
     <row r="20" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -46120,7 +46113,7 @@
     </row>
     <row r="21" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -46413,7 +46406,7 @@
     </row>
     <row r="22" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -46706,7 +46699,7 @@
     </row>
     <row r="23" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -47292,7 +47285,7 @@
     </row>
     <row r="25" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -47585,7 +47578,7 @@
     </row>
     <row r="26" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -47878,7 +47871,7 @@
     </row>
     <row r="27" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -48171,7 +48164,7 @@
     </row>
     <row r="28" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -48464,7 +48457,7 @@
     </row>
     <row r="29" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -48757,7 +48750,7 @@
     </row>
     <row r="30" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -49050,7 +49043,7 @@
     </row>
     <row r="31" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -49343,7 +49336,7 @@
     </row>
     <row r="32" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -49636,7 +49629,7 @@
     </row>
     <row r="33" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -49929,7 +49922,7 @@
     </row>
     <row r="34" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -50515,7 +50508,7 @@
     </row>
     <row r="36" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -51394,7 +51387,7 @@
     </row>
     <row r="39" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -51980,7 +51973,7 @@
     </row>
     <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -52566,7 +52559,7 @@
     </row>
     <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -52859,7 +52852,7 @@
     </row>
     <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
@@ -53445,7 +53438,7 @@
     </row>
     <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
@@ -53738,7 +53731,7 @@
     </row>
     <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -54031,7 +54024,7 @@
     </row>
     <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -54910,7 +54903,7 @@
     </row>
     <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -55789,7 +55782,7 @@
     </row>
     <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -56082,7 +56075,7 @@
     </row>
     <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -56375,7 +56368,7 @@
     </row>
     <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -56668,7 +56661,7 @@
     </row>
     <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -56961,7 +56954,7 @@
     </row>
     <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -57254,7 +57247,7 @@
     </row>
     <row r="59" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -57840,7 +57833,7 @@
     </row>
     <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -58133,7 +58126,7 @@
     </row>
     <row r="62" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -58426,7 +58419,7 @@
     </row>
     <row r="63" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -58719,7 +58712,7 @@
     </row>
     <row r="64" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -59012,7 +59005,7 @@
     </row>
     <row r="65" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -59891,7 +59884,7 @@
     </row>
     <row r="68" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
@@ -60184,7 +60177,7 @@
     </row>
     <row r="69" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -60770,7 +60763,7 @@
     </row>
     <row r="71" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -61063,7 +61056,7 @@
     </row>
     <row r="72" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -61356,7 +61349,7 @@
     </row>
     <row r="73" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -61942,7 +61935,7 @@
     </row>
     <row r="75" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -62235,7 +62228,7 @@
     </row>
     <row r="76" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -62528,7 +62521,7 @@
     </row>
     <row r="77" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -62821,7 +62814,7 @@
     </row>
     <row r="78" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -63114,7 +63107,7 @@
     </row>
     <row r="79" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79" s="1">
         <v>2</v>
@@ -63407,7 +63400,7 @@
     </row>
     <row r="80" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -63700,7 +63693,7 @@
     </row>
     <row r="81" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -63993,7 +63986,7 @@
     </row>
     <row r="82" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -64286,7 +64279,7 @@
     </row>
     <row r="83" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -64579,7 +64572,7 @@
     </row>
     <row r="84" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -64872,7 +64865,7 @@
     </row>
     <row r="85" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -65165,7 +65158,7 @@
     </row>
     <row r="86" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -65458,7 +65451,7 @@
     </row>
     <row r="87" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -65751,7 +65744,7 @@
     </row>
     <row r="88" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -66337,7 +66330,7 @@
     </row>
     <row r="90" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -67216,7 +67209,7 @@
     </row>
     <row r="93" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -67802,7 +67795,7 @@
     </row>
     <row r="95" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -68095,7 +68088,7 @@
     </row>
     <row r="96" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -68388,7 +68381,7 @@
     </row>
     <row r="97" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -68681,7 +68674,7 @@
     </row>
     <row r="98" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -68972,7 +68965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:97" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:97" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>46</v>
       </c>
@@ -69265,9 +69258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:97" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>110</v>
+    <row r="100" spans="1:97" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="B100" s="5">
         <v>0</v>
@@ -69560,7 +69553,7 @@
     </row>
     <row r="101" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -70146,7 +70139,7 @@
     </row>
     <row r="103" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -71318,7 +71311,7 @@
     </row>
     <row r="107" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -71904,7 +71897,7 @@
     </row>
     <row r="109" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -72490,7 +72483,7 @@
     </row>
     <row r="111" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -73662,7 +73655,7 @@
     </row>
     <row r="115" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -73955,7 +73948,7 @@
     </row>
     <row r="116" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -74541,7 +74534,7 @@
     </row>
     <row r="118" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -75713,7 +75706,7 @@
     </row>
     <row r="122" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -76299,7 +76292,7 @@
     </row>
     <row r="124" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -76592,7 +76585,7 @@
     </row>
     <row r="125" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" s="1">
         <v>5</v>
@@ -76885,7 +76878,7 @@
     </row>
     <row r="126" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -77178,7 +77171,7 @@
     </row>
     <row r="127" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -77471,7 +77464,7 @@
     </row>
     <row r="128" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -78350,7 +78343,7 @@
     </row>
     <row r="131" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -78936,7 +78929,7 @@
     </row>
     <row r="133" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -79815,7 +79808,7 @@
     </row>
     <row r="136" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -80108,7 +80101,7 @@
     </row>
     <row r="137" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -80694,7 +80687,7 @@
     </row>
     <row r="139" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -80987,7 +80980,7 @@
     </row>
     <row r="140" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -81573,7 +81566,7 @@
     </row>
     <row r="142" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -81866,7 +81859,7 @@
     </row>
     <row r="143" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -82159,7 +82152,7 @@
     </row>
     <row r="144" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -82745,7 +82738,7 @@
     </row>
     <row r="146" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -83038,7 +83031,7 @@
     </row>
     <row r="147" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -83624,7 +83617,7 @@
     </row>
     <row r="149" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -84503,7 +84496,7 @@
     </row>
     <row r="152" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -84796,7 +84789,7 @@
     </row>
     <row r="153" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -85382,7 +85375,7 @@
     </row>
     <row r="155" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -85675,7 +85668,7 @@
     </row>
     <row r="156" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B156" s="1">
         <v>2</v>
@@ -86261,7 +86254,7 @@
     </row>
     <row r="158" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -86847,7 +86840,7 @@
     </row>
     <row r="160" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -87140,7 +87133,7 @@
     </row>
     <row r="161" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -87433,7 +87426,7 @@
     </row>
     <row r="162" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
@@ -88312,7 +88305,7 @@
     </row>
     <row r="165" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -88605,7 +88598,7 @@
     </row>
     <row r="166" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -88898,7 +88891,7 @@
     </row>
     <row r="167" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -89777,7 +89770,7 @@
     </row>
     <row r="170" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -90363,7 +90356,7 @@
     </row>
     <row r="172" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -90656,7 +90649,7 @@
     </row>
     <row r="173" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -91535,7 +91528,7 @@
     </row>
     <row r="176" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -91828,7 +91821,7 @@
     </row>
     <row r="177" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -92121,7 +92114,7 @@
     </row>
     <row r="178" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -93293,7 +93286,7 @@
     </row>
     <row r="182" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -93586,7 +93579,7 @@
     </row>
     <row r="183" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -93879,7 +93872,7 @@
     </row>
     <row r="184" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
@@ -94172,7 +94165,7 @@
     </row>
     <row r="185" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B185" s="1">
         <v>0</v>
@@ -95051,7 +95044,7 @@
     </row>
     <row r="188" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -95344,7 +95337,7 @@
     </row>
     <row r="189" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B189" s="1">
         <v>0</v>
@@ -95930,7 +95923,7 @@
     </row>
     <row r="191" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B191" s="1">
         <v>0</v>
@@ -96809,7 +96802,7 @@
     </row>
     <row r="194" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
